--- a/SecurityRestrictionsProfile.xlsx
+++ b/SecurityRestrictionsProfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niels/Dropbox/UCB/Scriptz/SecurityRestrictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C389C-45CC-C14B-937D-4621AA642071}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A802C-B1DB-D746-8340-7553C842EEC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="U7ihe6UgYwjAutyYVETxtf9H4gBgzNT+IozyveFRhqVmgGmwmJK2UNpw+9w7zKfpGhDdtATjRYdROOs5TmiSJA==" workbookSaltValue="ErfQeiSFoZEQ8nRQCJHb3g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" xr2:uid="{CA56E8AE-F3E4-874F-9EE4-2BFE76CB70CB}"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="258">
   <si>
     <t>Key</t>
   </si>
@@ -461,9 +461,6 @@
     <t>Optional. When false.. iTunes application file sharing services are disabled. Availability: Available in macOS 10.13 and later</t>
   </si>
   <si>
-    <t>Optional. Supervised only. If present.. allows apps identified by the bundle IDs listed in the array to autonomously enter Single App Mode. Availability: Available only in iOS 7.0 and later</t>
-  </si>
-  <si>
     <t>Optional. Supervised only. When true.. forces the use of the profanity filter assistant.</t>
   </si>
   <si>
@@ -702,9 +699,6 @@
   </si>
   <si>
     <t>allowUIConfigurationProfileInstallation</t>
-  </si>
-  <si>
-    <t>autonomousSingleAppModePermittedAppIDs</t>
   </si>
   <si>
     <t>forceITunesStorePasswordEntry</t>
@@ -819,7 +813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -885,10 +879,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1BF24BC-DF84-8A47-9382-00F7AFD3BA8F}" name="Table2" displayName="Table2" ref="A1:G135" totalsRowShown="0">
-  <autoFilter ref="A1:G135" xr:uid="{1523F441-7F0D-C948-A92D-1CA5C333338B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G135">
-    <sortCondition ref="G1:G135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1BF24BC-DF84-8A47-9382-00F7AFD3BA8F}" name="Table2" displayName="Table2" ref="A1:G134" totalsRowShown="0">
+  <autoFilter ref="A1:G134" xr:uid="{1523F441-7F0D-C948-A92D-1CA5C333338B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G134">
+    <sortCondition ref="G1:G134"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F6B3D34D-EBD9-6C42-B544-538902E4A926}" name="Key"/>
@@ -1200,13 +1194,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605BFDB5-7753-1442-8E64-79B247E67F08}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="140" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1215,7 +1209,7 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,9 +1232,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1258,9 +1252,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51">
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1278,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1298,9 +1292,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1318,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="204">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1378,9 +1372,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1398,9 +1392,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="34">
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1418,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="68">
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="51">
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="51">
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="34">
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="34">
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="34">
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="34">
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="34">
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="34">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51">
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="34">
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="34">
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1698,9 +1692,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="34">
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1718,7 +1712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68">
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1738,9 +1732,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="34">
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1758,9 +1752,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34">
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1778,7 +1772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34">
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1798,9 +1792,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="34">
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -1818,7 +1812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1838,9 +1832,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="34">
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -1858,7 +1852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="68">
+    <row r="33" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1878,9 +1872,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="68">
+    <row r="34" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1898,9 +1892,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="34">
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1918,7 +1912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="34">
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1938,9 +1932,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="51">
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1958,9 +1952,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="51">
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1978,7 +1972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="51">
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1998,9 +1992,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="34">
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -2018,7 +2012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +2032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="51">
+    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2098,7 +2092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2118,7 +2112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="204">
+    <row r="47" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -2158,7 +2152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="34">
+    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2178,9 +2172,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="51">
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -2198,7 +2192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="34">
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2218,7 +2212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="34">
+    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -2238,7 +2232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="34">
+    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -2258,7 +2252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="51">
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51">
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2298,7 +2292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="34">
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -2318,29 +2312,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>142</v>
       </c>
       <c r="D56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -2352,35 +2346,35 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -2389,18 +2383,18 @@
         <v>145</v>
       </c>
       <c r="D59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -2412,55 +2406,55 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>225</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-      <c r="G61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>5</v>
-      </c>
-      <c r="G62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="34">
-      <c r="A63" t="s">
-        <v>226</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -2475,32 +2469,32 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="68">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>227</v>
-      </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -2515,12 +2509,12 @@
         <v>5</v>
       </c>
       <c r="G65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -2535,32 +2529,32 @@
         <v>5</v>
       </c>
       <c r="G66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D67" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -2572,15 +2566,15 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -2589,18 +2583,18 @@
         <v>155</v>
       </c>
       <c r="D69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -2615,12 +2609,12 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -2635,12 +2629,12 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -2649,18 +2643,18 @@
         <v>158</v>
       </c>
       <c r="D72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -2672,15 +2666,15 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="51">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
@@ -2695,12 +2689,12 @@
         <v>5</v>
       </c>
       <c r="G74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="51">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -2715,12 +2709,12 @@
         <v>5</v>
       </c>
       <c r="G75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -2732,15 +2726,15 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -2752,15 +2746,15 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="68">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -2772,15 +2766,15 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="68">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -2792,15 +2786,15 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="34">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
@@ -2815,12 +2809,12 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
@@ -2829,18 +2823,18 @@
         <v>167</v>
       </c>
       <c r="D81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -2855,12 +2849,12 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
@@ -2872,15 +2866,15 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -2889,18 +2883,18 @@
         <v>170</v>
       </c>
       <c r="D84" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="51">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
@@ -2912,15 +2906,15 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="102">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
@@ -2932,55 +2926,55 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="34">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="2" t="b">
-        <v>0</v>
+      <c r="D87" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>259</v>
+      <c r="D88" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -2989,18 +2983,18 @@
         <v>175</v>
       </c>
       <c r="D89" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>5</v>
       </c>
       <c r="G89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="68">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
@@ -3015,12 +3009,12 @@
         <v>5</v>
       </c>
       <c r="G90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="51">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
@@ -3032,15 +3026,15 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
@@ -3052,15 +3046,15 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="34">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
@@ -3069,18 +3063,18 @@
         <v>179</v>
       </c>
       <c r="D93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="G93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
@@ -3089,18 +3083,18 @@
         <v>180</v>
       </c>
       <c r="D94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="51">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
@@ -3112,15 +3106,15 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="34">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
@@ -3135,12 +3129,12 @@
         <v>5</v>
       </c>
       <c r="G96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -3155,12 +3149,12 @@
         <v>5</v>
       </c>
       <c r="G97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="34">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
@@ -3175,12 +3169,12 @@
         <v>5</v>
       </c>
       <c r="G98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
@@ -3189,18 +3183,18 @@
         <v>185</v>
       </c>
       <c r="D99" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
@@ -3209,18 +3203,18 @@
         <v>186</v>
       </c>
       <c r="D100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
@@ -3229,18 +3223,18 @@
         <v>187</v>
       </c>
       <c r="D101" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="G101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
@@ -3249,18 +3243,18 @@
         <v>188</v>
       </c>
       <c r="D102" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
@@ -3269,18 +3263,18 @@
         <v>189</v>
       </c>
       <c r="D103" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="34">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -3292,55 +3286,55 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="2" t="b">
-        <v>1</v>
+      <c r="D105" s="2">
+        <v>90</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="85">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D106" s="2">
-        <v>90</v>
+      <c r="D106" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="85">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -3349,18 +3343,18 @@
         <v>193</v>
       </c>
       <c r="D107" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="51">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -3375,12 +3369,12 @@
         <v>5</v>
       </c>
       <c r="G108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="51">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -3395,12 +3389,12 @@
         <v>5</v>
       </c>
       <c r="G109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="51">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -3415,58 +3409,58 @@
         <v>5</v>
       </c>
       <c r="G110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="102">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" s="2" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="68">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1000</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="68">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
         <v>82</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D113" s="2">
         <v>1000</v>
@@ -3475,18 +3469,18 @@
         <v>4</v>
       </c>
       <c r="G113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="68">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
         <v>82</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D114" s="2">
         <v>1000</v>
@@ -3495,32 +3489,32 @@
         <v>4</v>
       </c>
       <c r="G114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="68">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D115" s="2">
-        <v>1000</v>
+        <v>197</v>
+      </c>
+      <c r="D115" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="85">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
@@ -3529,18 +3523,18 @@
         <v>198</v>
       </c>
       <c r="D116" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="85">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -3552,15 +3546,15 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
@@ -3575,12 +3569,12 @@
         <v>5</v>
       </c>
       <c r="G118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="51">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -3595,12 +3589,12 @@
         <v>5</v>
       </c>
       <c r="G119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="68">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
@@ -3615,12 +3609,12 @@
         <v>5</v>
       </c>
       <c r="G120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
@@ -3635,12 +3629,12 @@
         <v>5</v>
       </c>
       <c r="G121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="51">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
@@ -3655,12 +3649,12 @@
         <v>5</v>
       </c>
       <c r="G122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="34">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
@@ -3675,58 +3669,38 @@
         <v>5</v>
       </c>
       <c r="G123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="34">
-      <c r="A124" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>5</v>
-      </c>
-      <c r="G124">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="3:3">
-      <c r="C135" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3745,9 +3719,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3755,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3763,7 +3737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>3</v>
       </c>
